--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -19,9 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read a book </t>
+  </si>
+  <si>
+    <t>Read an educational article</t>
+  </si>
+  <si>
+    <t>Watch educational media</t>
+  </si>
+  <si>
+    <t>Learn something about technology</t>
+  </si>
+  <si>
+    <t>Have a hallway conversation</t>
+  </si>
+  <si>
+    <t>Learn something from someone</t>
+  </si>
+  <si>
+    <t>Exercise &gt;=10 minutes</t>
+  </si>
+  <si>
+    <t>Learn something about company</t>
+  </si>
+  <si>
+    <t>Prepare an Agenda for a Meeting</t>
+  </si>
+  <si>
+    <t>Take/refine notes from a meeting</t>
+  </si>
+  <si>
+    <t>test?</t>
   </si>
 </sst>
 </file>
@@ -391,23 +424,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <f>DATE(2016, 9, 26)</f>
         <v>42639</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Take/refine notes from a meeting</t>
-  </si>
-  <si>
-    <t>test?</t>
   </si>
 </sst>
 </file>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -479,30 +476,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <f>DATE(2016, 9, 26) +1</f>
+        <v>42640</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <f>DATE(2016, 9, 26)</f>
+        <f>DATE(2016, 9, 26) +0</f>
         <v>42639</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="K3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="24480" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,7 +481,16 @@
         <f>DATE(2016, 9, 26) +1</f>
         <v>42640</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="24480" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -52,16 +52,38 @@
   </si>
   <si>
     <t>Take/refine notes from a meeting</t>
+  </si>
+  <si>
+    <t>Learn something about upcoming technology/medical research</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,14 +106,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -433,15 +467,16 @@
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,71 +493,241 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <f>DATE(2016, 9, 26) +4</f>
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>DATE(2016, 9, 26) +3</f>
+        <v>42642</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <f>DATE(2016, 9, 26) +2</f>
+        <v>42641</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <f>DATE(2016, 9, 26) +1</f>
         <v>42640</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <f>DATE(2016, 9, 26) +0</f>
         <v>42639</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:L7" si="0">AVERAGE(C3:C6)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,211 +516,250 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <f>DATE(2016, 9, 26) +9</f>
+        <v>42648</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>DATE(2016, 9, 26) +8</f>
+        <v>42647</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <f>DATE(2016, 9, 26) +7</f>
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <f>DATE(2016, 9, 26) +4</f>
         <v>42643</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <f>DATE(2016, 9, 26) +3</f>
         <v>42642</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <f>DATE(2016, 9, 26) +2</f>
         <v>42641</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <f>DATE(2016, 9, 26) +1</f>
         <v>42640</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <f>DATE(2016, 9, 26) +0</f>
         <v>42639</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <f>AVERAGE(B3:B6)</f>
+      <c r="B10">
+        <f>AVERAGE(B6:B9)</f>
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:L7" si="0">AVERAGE(C3:C6)</f>
+      <c r="C10">
+        <f t="shared" ref="C10:L10" si="0">AVERAGE(C6:C9)</f>
         <v>1.5</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J7">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -522,6 +522,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
       <c r="H2">
         <v>2</v>
       </c>
@@ -532,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -106,8 +106,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,13 +121,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,256 +520,298 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
+        <f>DATE(2016, 9, 26) +17</f>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>DATE(2016, 9, 26) +14</f>
+        <v>42653</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <f>DATE(2016, 9, 26) +10</f>
+        <v>42649</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <f>DATE(2016, 9, 26) +9</f>
         <v>42648</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <f>DATE(2016, 9, 26) +8</f>
         <v>42647</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <f>DATE(2016, 9, 26) +7</f>
         <v>42646</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <f>DATE(2016, 9, 26) +4</f>
         <v>42643</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <f>DATE(2016, 9, 26) +3</f>
         <v>42642</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <f>DATE(2016, 9, 26) +2</f>
         <v>42641</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <f>DATE(2016, 9, 26) +1</f>
         <v>42640</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
         <f>DATE(2016, 9, 26) +0</f>
         <v>42639</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <f>AVERAGE(B6:B9)</f>
+      <c r="B13">
+        <f>AVERAGE(B9:B12)</f>
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:L10" si="0">AVERAGE(C6:C9)</f>
+      <c r="C13">
+        <f t="shared" ref="C13:L13" si="0">AVERAGE(C9:C12)</f>
         <v>1.5</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H10">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I10">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J10">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K10">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>

--- a/TrickleSheet.xlsx
+++ b/TrickleSheet.xlsx
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -518,300 +518,333 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>DATE(2016, 9, 26) +18</f>
+        <v>42657</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
         <f>DATE(2016, 9, 26) +17</f>
         <v>42656</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <f>DATE(2016, 9, 26) +14</f>
         <v>42653</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <f>DATE(2016, 9, 26) +10</f>
         <v>42649</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <f>DATE(2016, 9, 26) +9</f>
         <v>42648</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <f>DATE(2016, 9, 26) +8</f>
         <v>42647</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <f>DATE(2016, 9, 26) +7</f>
         <v>42646</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <f>DATE(2016, 9, 26) +4</f>
         <v>42643</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <f>DATE(2016, 9, 26) +3</f>
         <v>42642</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
         <f>DATE(2016, 9, 26) +2</f>
         <v>42641</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <f>DATE(2016, 9, 26) +1</f>
         <v>42640</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
         <f>DATE(2016, 9, 26) +0</f>
         <v>42639</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>AVERAGE(B9:B12)</f>
+      <c r="B15">
+        <f>AVERAGE(B11:B14)</f>
         <v>0.5</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:L13" si="0">AVERAGE(C9:C12)</f>
+      <c r="C15">
+        <f t="shared" ref="C15:L15" si="0">AVERAGE(C11:C14)</f>
         <v>1.5</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
